--- a/Assignment3/tables.xlsx
+++ b/Assignment3/tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>PCA</t>
   </si>
@@ -53,39 +53,116 @@
     <t>Clusters</t>
   </si>
   <si>
-    <t>PCA Clustered</t>
-  </si>
-  <si>
-    <t>ICA Clustered</t>
-  </si>
-  <si>
-    <t>LDA Clustered</t>
-  </si>
-  <si>
-    <t>RP Clustered</t>
-  </si>
-  <si>
     <t>Fit Time</t>
   </si>
   <si>
     <t>Predict Time</t>
   </si>
   <si>
-    <t>Test Accuracy (approx)</t>
-  </si>
-  <si>
     <t>Original (Assignment 1)</t>
   </si>
   <si>
     <t>Number Features</t>
+  </si>
+  <si>
+    <t>neural network pca k-means fit time: 0.121 seconds</t>
+  </si>
+  <si>
+    <t>neural network pca k-means predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>neural network pca gmm fit time: 0.125 seconds</t>
+  </si>
+  <si>
+    <t>neural network pca gmm predict time: 0.001 seconds</t>
+  </si>
+  <si>
+    <t>neural network ida k-means fit time: 0.094 seconds</t>
+  </si>
+  <si>
+    <t>neural network ida k-means predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>neural network ida gmm fit time: 0.097 seconds</t>
+  </si>
+  <si>
+    <t>neural network ida gmm predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>neural network rp k-means fit time: 0.179 seconds</t>
+  </si>
+  <si>
+    <t>neural network rp k-means predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>neural network rp gmm fit time: 0.187 seconds</t>
+  </si>
+  <si>
+    <t>neural network rp gmm predict time: 0.001 seconds</t>
+  </si>
+  <si>
+    <t>neural network lda k-means fit time: 0.159 seconds</t>
+  </si>
+  <si>
+    <t>neural network lda k-means predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>neural network lda gmm fit time: 0.113 seconds</t>
+  </si>
+  <si>
+    <t>neural network lda gmm predict time: 0.001 seconds</t>
+  </si>
+  <si>
+    <t>neural network original fit time: 0.640 seconds</t>
+  </si>
+  <si>
+    <t>neural network original predict time: 0.000 seconds</t>
+  </si>
+  <si>
+    <t>PCA K-Means</t>
+  </si>
+  <si>
+    <t>PCA GMM</t>
+  </si>
+  <si>
+    <t>ICA K-Means</t>
+  </si>
+  <si>
+    <t>ICA GMM</t>
+  </si>
+  <si>
+    <t>LDA K-Means</t>
+  </si>
+  <si>
+    <t>LDA GMM</t>
+  </si>
+  <si>
+    <t>RP K-Means</t>
+  </si>
+  <si>
+    <t>RP GMM</t>
+  </si>
+  <si>
+    <t>CV Accuracy (@900)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +186,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -459,17 +554,18 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -482,10 +578,19 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="J3" s="1">
         <v>4</v>
       </c>
     </row>
@@ -499,8 +604,20 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -513,8 +630,20 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -527,13 +656,54 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -543,6 +713,21 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.113</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -551,6 +736,21 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -562,6 +762,21 @@
       <c r="C11">
         <v>8</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -596,7 +811,98 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment3/tables.xlsx
+++ b/Assignment3/tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>PCA</t>
   </si>
@@ -151,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U12" sqref="M10:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,9 +537,11 @@
     <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" customWidth="1"/>
     <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -568,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -594,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -620,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -646,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -672,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
@@ -689,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
@@ -706,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -729,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -751,8 +753,33 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M10" s="1"/>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -777,8 +804,35 @@
       <c r="J11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -788,8 +842,35 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -800,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
